--- a/Dataset/Authors/SIL.xlsx
+++ b/Dataset/Authors/SIL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAA5C30-01C5-41EE-ACBF-7F54973FC7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20FFE68-450B-46C8-8F5F-854792D21316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Ti. Catius Asconius Silius Italicus</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>accipiter</t>
   </si>
 </sst>
 </file>
@@ -933,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA164"/>
+  <dimension ref="A1:AA165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1093,11 +1096,11 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2</v>
+      <c r="A6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1127,10 +1130,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1160,7 +1163,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -1193,10 +1196,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1226,10 +1229,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1259,10 +1262,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1292,10 +1295,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1325,10 +1328,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1358,10 +1361,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1391,10 +1394,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8">
         <v>2</v>
@@ -1457,10 +1460,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1490,10 +1493,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1523,10 +1526,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1556,10 +1559,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1589,10 +1592,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1622,10 +1625,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1655,7 +1658,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -1688,10 +1691,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1721,10 +1724,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1754,10 +1757,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1787,10 +1790,10 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1820,7 +1823,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -1853,7 +1856,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -1886,10 +1889,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1919,10 +1922,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1952,7 +1955,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -1985,10 +1988,10 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2018,10 +2021,10 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -2084,10 +2087,10 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2117,10 +2120,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
@@ -2183,10 +2186,10 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2216,10 +2219,10 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2249,10 +2252,10 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -2282,10 +2285,10 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2315,10 +2318,10 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2348,7 +2351,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
@@ -2381,7 +2384,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
@@ -2414,10 +2417,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2447,10 +2450,10 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2480,10 +2483,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2513,10 +2516,10 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2546,10 +2549,10 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="8">
         <v>2</v>
@@ -2612,10 +2615,10 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2645,10 +2648,10 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2678,10 +2681,10 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2711,10 +2714,10 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2744,7 +2747,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="8">
         <v>1</v>
@@ -2777,7 +2780,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8">
         <v>1</v>
@@ -2810,10 +2813,10 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2843,10 +2846,10 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2876,10 +2879,10 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2909,10 +2912,10 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2942,10 +2945,10 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2975,10 +2978,10 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3008,10 +3011,10 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="8">
         <v>2</v>
@@ -3074,10 +3077,10 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3107,10 +3110,10 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="8">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3140,10 +3143,10 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="8">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3173,10 +3176,10 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -3206,10 +3209,10 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -3239,10 +3242,10 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -3272,10 +3275,10 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -3305,7 +3308,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="8">
         <v>1</v>
@@ -3338,10 +3341,10 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -3371,10 +3374,10 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="8">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -3404,10 +3407,10 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3437,7 +3440,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="8">
         <v>1</v>
@@ -3470,7 +3473,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="8">
         <v>1</v>
@@ -3503,7 +3506,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="8">
         <v>1</v>
@@ -3536,7 +3539,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="8">
         <v>1</v>
@@ -3569,10 +3572,10 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -3602,10 +3605,10 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3635,7 +3638,7 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="8">
         <v>4</v>
@@ -3668,10 +3671,10 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3701,10 +3704,10 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -3734,10 +3737,10 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3767,7 +3770,7 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="8">
         <v>1</v>
@@ -3800,10 +3803,10 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -3833,10 +3836,10 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -3866,10 +3869,10 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -3899,10 +3902,10 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -3932,10 +3935,10 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -3965,10 +3968,10 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -3998,10 +4001,10 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -4031,10 +4034,10 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -4064,10 +4067,10 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -4097,10 +4100,10 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -4130,10 +4133,10 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -4163,10 +4166,10 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -4196,10 +4199,10 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -4229,10 +4232,10 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -4262,10 +4265,10 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -4295,10 +4298,10 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -4328,10 +4331,10 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -4361,10 +4364,10 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -4394,10 +4397,10 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -4427,10 +4430,10 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -4460,10 +4463,10 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -4493,10 +4496,10 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -4526,10 +4529,10 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -4559,7 +4562,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="8">
         <v>1</v>
@@ -4592,10 +4595,10 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -4625,10 +4628,10 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -4658,7 +4661,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="8">
         <v>1</v>
@@ -4691,7 +4694,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="8">
         <v>1</v>
@@ -4724,10 +4727,10 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -4757,10 +4760,10 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -4790,7 +4793,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="8">
         <v>2</v>
@@ -4823,10 +4826,10 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -4856,10 +4859,10 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -4889,10 +4892,10 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -4922,10 +4925,10 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -4955,10 +4958,10 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -4988,10 +4991,10 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -5021,10 +5024,10 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -5054,10 +5057,10 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -5087,10 +5090,10 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -5120,7 +5123,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="8">
         <v>5</v>
@@ -5153,10 +5156,10 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -5186,10 +5189,10 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="8">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -5219,10 +5222,10 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -5252,7 +5255,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="8">
         <v>1</v>
@@ -5285,10 +5288,10 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -5318,10 +5321,10 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -5351,10 +5354,10 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -5384,10 +5387,10 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -5417,7 +5420,7 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="8">
         <v>2</v>
@@ -5450,10 +5453,10 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -5483,10 +5486,10 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -5516,10 +5519,10 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -5549,10 +5552,10 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -5582,7 +5585,7 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="8">
         <v>1</v>
@@ -5615,7 +5618,7 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="8">
         <v>1</v>
@@ -5648,10 +5651,10 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -5681,7 +5684,7 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="8">
         <v>2</v>
@@ -5714,10 +5717,10 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -5747,10 +5750,10 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -5780,10 +5783,10 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -5813,7 +5816,7 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="8">
         <v>2</v>
@@ -5846,10 +5849,10 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -5879,10 +5882,10 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -5912,10 +5915,10 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -5945,10 +5948,10 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
@@ -5978,10 +5981,10 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -6011,7 +6014,7 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="8">
         <v>3</v>
@@ -6044,10 +6047,10 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -6077,10 +6080,10 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -6110,10 +6113,10 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -6143,10 +6146,10 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -6176,7 +6179,7 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="8">
         <v>2</v>
@@ -6209,10 +6212,10 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -6242,10 +6245,10 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -6275,10 +6278,10 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -6308,10 +6311,10 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -6339,7 +6342,18 @@
       <c r="Z164" s="8"/>
       <c r="AA164" s="8"/>
     </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="8">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B165">
+    <sortCondition ref="A165"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>